--- a/DataNV/Денькович.xlsx
+++ b/DataNV/Денькович.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB6"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,41 +603,36 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25.06.2024</t>
+          <t>29.07.2024</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16:44:34</t>
+          <t>11:41:59</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026116 від 25.06.2024</t>
+          <t>Наряд-замовлення ЗНGA026802 від 30.07.2024 11:41:59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Очікування деталей</t>
+          <t>В роботі</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>26.06.2024 08:18:00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Очікування деталей</t>
+          <t>29.07.2024 18:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Гарантійний ремонт АвтоКапітал</t>
+          <t>Додаткове обладнання</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -651,75 +646,75 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>14282.82</v>
+        <v>33150</v>
       </c>
       <c r="L2" t="n">
-        <v>2027.48</v>
+        <v>24433.7</v>
       </c>
       <c r="M2" t="n">
-        <v>11902.35</v>
+        <v>27625</v>
       </c>
       <c r="N2" t="n">
-        <v>1689.57</v>
+        <v>20361.42</v>
       </c>
       <c r="O2" t="n">
-        <v>13591.92</v>
+        <v>47986.42</v>
       </c>
       <c r="P2" t="n">
-        <v>4760.94</v>
+        <v>11050</v>
       </c>
       <c r="Q2" t="n">
-        <v>16310.3</v>
+        <v>57583.7</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>12.3</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>АвтоКапітал ПРАТ</t>
+          <t>Зінкевич Костянтин Володимирович</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>СУЗІР'Я ПП</t>
+          <t>Зінкевич Костянтин Володимирович</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>+38 (03249) 46817</t>
+          <t>+38 (067) 5500304</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>01. Mercedes-Benz GLE 300 d 4MATIC Coupe</t>
+          <t>08. Mercedes-Benz GLS 580 4MATIC</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>ВС7999ІЕ</t>
+          <t>Не видавався</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>W1NFD0KB0PA877145</t>
+          <t>W1NFF8FE1RB224012</t>
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>13541</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>21.03.2023</t>
+          <t>25.07.2024</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>Юридична особа</t>
+          <t>Приватна особа</t>
         </is>
       </c>
     </row>
@@ -734,12 +729,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:41:59</t>
+          <t>14:07:27</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026802 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026808 від 29.07.2024 14:07:27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -749,12 +744,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>29.07.2024 18:00:00</t>
+          <t>31.07.2024 09:59:52</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Додаткове обладнання</t>
+          <t>Поточний ремонт</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -767,71 +762,62 @@
           <t>Не проведен</t>
         </is>
       </c>
-      <c r="K3" t="n">
-        <v>33150</v>
-      </c>
       <c r="L3" t="n">
-        <v>24433.7</v>
-      </c>
-      <c r="M3" t="n">
-        <v>27625</v>
+        <v>10893.6</v>
       </c>
       <c r="N3" t="n">
-        <v>20361.42</v>
+        <v>9078</v>
       </c>
       <c r="O3" t="n">
-        <v>47986.42</v>
-      </c>
-      <c r="P3" t="n">
-        <v>11050</v>
+        <v>9078</v>
       </c>
       <c r="Q3" t="n">
-        <v>57583.7</v>
+        <v>10893.6</v>
       </c>
       <c r="R3" t="n">
-        <v>12.3</v>
+        <v>5.5</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Зінкевич Костянтин Володимирович</t>
+          <t>Скібчик Вадим Олегович</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Зінкевич Костянтин Володимирович</t>
+          <t>Скібчик Вадим Олегович</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>+38 (067) 5500304</t>
+          <t>+38 (063) 0178995</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>08. Mercedes-Benz GLS 580 4MATIC</t>
+          <t>S 500 4MATIC Long</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>Не видавався</t>
+          <t>ВС8903ТЕ</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>W1NFF8FE1RB224012</t>
+          <t>W1K6G7GB9MA034790</t>
         </is>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>34466</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>25.07.2024</t>
+          <t>25.02.2021</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -842,31 +828,31 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29.07.2024</t>
+          <t>30.07.2024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:07:27</t>
+          <t>11:38:55</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026808 від 29.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026841 від 30.07.2024 11:38:55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>В роботі</t>
+          <t>Заявка</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>31.07.2024 09:59:52</t>
+          <t>30.07.2024 15:00:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -885,61 +871,61 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>10893.6</v>
+        <v>9184.799999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>9078</v>
+        <v>7654</v>
       </c>
       <c r="O4" t="n">
-        <v>9078</v>
+        <v>7654</v>
       </c>
       <c r="Q4" t="n">
-        <v>10893.6</v>
+        <v>9184.799999999999</v>
       </c>
       <c r="R4" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Скібчик Вадим Олегович</t>
+          <t>Олещук Володимир Андрійович</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Скібчик Вадим Олегович</t>
+          <t>Олещук Володимир Андрійович</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>+38 (063) 0178995</t>
+          <t>+38 (068) 1001101</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>S 500 4MATIC Long</t>
+          <t>06. Mercedes-AMG EQE 53 4MATIC SUV</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>ВС8903ТЕ</t>
+          <t>002493</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>W1K6G7GB9MA034790</t>
+          <t>4JGGM5DB4RA002493</t>
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>34466</v>
+        <v>4156</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>25.02.2021</t>
+          <t>02.10.2023</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -950,21 +936,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30.07.2024</t>
+          <t>31.07.2024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:38:55</t>
+          <t>17:30:36</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Наряд-замовлення ЗНGA026841 від 30.07.2024</t>
+          <t>Наряд-замовлення ЗНGA026894 від 31.07.2024 17:30:58</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -974,12 +960,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>30.07.2024 15:00:00</t>
+          <t>01.08.2024 11:00:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Поточний ремонт</t>
+          <t>Технічне обслуговування</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -992,182 +978,74 @@
           <t>Не проведен</t>
         </is>
       </c>
+      <c r="K5" t="n">
+        <v>12463.07</v>
+      </c>
       <c r="L5" t="n">
-        <v>9184.799999999999</v>
+        <v>7689.65</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10385.89</v>
       </c>
       <c r="N5" t="n">
-        <v>7654</v>
+        <v>6408.04</v>
       </c>
       <c r="O5" t="n">
-        <v>7654</v>
+        <v>16793.93</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4154.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>9184.799999999999</v>
+        <v>20152.72</v>
       </c>
       <c r="R5" t="n">
-        <v>4.3</v>
+        <v>4.501</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Олещук Володимир Андрійович</t>
+          <t>Віденська кава ТзОВ</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Олещук Володимир Андрійович</t>
+          <t>Віденська кава ТзОВ</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>+38 (068) 1001101</t>
+          <t>+38 (032) 2971046</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>06. Mercedes-AMG EQE 53 4MATIC SUV</t>
+          <t>02. Mercedes-Benz GLE 400 4MATIC Coupé</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>002493</t>
+          <t>ВС5111СН</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>4JGGM5DB4RA002493</t>
+          <t>WDC2923561A133091</t>
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>4156</v>
+        <v>118896</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>02.10.2023</t>
+          <t>24.05.2019</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
-        <is>
-          <t>Приватна особа</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>72</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>31.07.2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>15:45:44</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Наряд-замовлення ЗНGA026890 від 31.07.2024</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Заявка</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>31.07.2024 18:00:00</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Технічне обслуговування</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Денькович О.В.</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Не проведен</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>11677.19</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4058.46</v>
-      </c>
-      <c r="M6" t="n">
-        <v>9730.99</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3382.05</v>
-      </c>
-      <c r="O6" t="n">
-        <v>13113.04</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3892.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>15735.65</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.901</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>ІМПОРТ-ЕКСПЕРТ ТОВ</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>ІМПОРТ-ЕКСПЕРТ ТОВ</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>+38 (097) 6134401</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>11. Mercedes-Benz S 450 4MATIC long</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>КА0063АК</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>W1K6G6BB6PA199427</t>
-        </is>
-      </c>
-      <c r="Y6" t="n">
-        <v>16482</v>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>28.02.2024</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
         <is>
           <t>Юридична особа</t>
         </is>
